--- a/searchesdata.xlsx
+++ b/searchesdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andyayk\Desktop\venv\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HCS-PowerUser\Desktop\venv\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="searches" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">searches!$A$1:$C$361</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">searches!$I$1:$I$18</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -899,9 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -925,7 +923,7 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -933,7 +931,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(0,1)</f>
@@ -945,11 +943,11 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C19" ca="1" si="0">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -957,11 +955,11 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,11 +967,11 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -981,11 +979,11 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,11 +991,11 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1005,7 +1003,7 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
@@ -1017,11 +1015,11 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1029,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
@@ -1041,11 +1039,11 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,7 +1051,7 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
@@ -1065,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
@@ -1077,11 +1075,11 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1089,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
@@ -1101,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
@@ -1113,7 +1111,7 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
@@ -1125,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
@@ -1141,7 +1139,7 @@
       </c>
       <c r="C20">
         <f t="shared" ref="C20:C37" ca="1" si="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1149,7 +1147,7 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
@@ -1161,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
@@ -1173,11 +1171,11 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1185,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
@@ -1197,11 +1195,11 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1209,11 +1207,11 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1221,7 +1219,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
@@ -1233,11 +1231,11 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,11 +1243,11 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1257,11 +1255,11 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1269,11 +1267,11 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1281,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
@@ -1293,11 +1291,11 @@
         <v>4</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1305,7 +1303,7 @@
         <v>4</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
@@ -1317,11 +1315,11 @@
         <v>4</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1329,11 +1327,11 @@
         <v>4</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1341,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
@@ -1357,7 +1355,7 @@
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C55" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,11 +1363,11 @@
         <v>5</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1377,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
@@ -1389,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="2"/>
@@ -1401,7 +1399,7 @@
         <v>5</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="2"/>
@@ -1413,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="2"/>
@@ -1425,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="2"/>
@@ -1437,11 +1435,11 @@
         <v>5</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1449,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="2"/>
@@ -1461,11 +1459,11 @@
         <v>5</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1473,11 +1471,11 @@
         <v>5</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1485,7 +1483,7 @@
         <v>5</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="2"/>
@@ -1497,11 +1495,11 @@
         <v>5</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1509,11 +1507,11 @@
         <v>5</v>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1521,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="2"/>
@@ -1533,7 +1531,7 @@
         <v>5</v>
       </c>
       <c r="B53">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="2"/>
@@ -1545,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="2"/>
@@ -1557,11 +1555,11 @@
         <v>5</v>
       </c>
       <c r="B55">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,7 +1571,7 @@
       </c>
       <c r="C56">
         <f t="shared" ref="C56:C73" ca="1" si="3">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1581,7 +1579,7 @@
         <v>6</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="3"/>
@@ -1593,7 +1591,7 @@
         <v>6</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="3"/>
@@ -1605,11 +1603,11 @@
         <v>6</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1617,7 +1615,7 @@
         <v>6</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="3"/>
@@ -1629,11 +1627,11 @@
         <v>6</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1641,11 +1639,11 @@
         <v>6</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1653,11 +1651,11 @@
         <v>6</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1665,11 +1663,11 @@
         <v>6</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1677,7 +1675,7 @@
         <v>6</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="3"/>
@@ -1689,7 +1687,7 @@
         <v>6</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="3"/>
@@ -1701,7 +1699,7 @@
         <v>6</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="3"/>
@@ -1713,7 +1711,7 @@
         <v>6</v>
       </c>
       <c r="B68">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="3"/>
@@ -1725,7 +1723,7 @@
         <v>6</v>
       </c>
       <c r="B69">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="3"/>
@@ -1737,7 +1735,7 @@
         <v>6</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="3"/>
@@ -1749,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="B71">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="3"/>
@@ -1761,7 +1759,7 @@
         <v>6</v>
       </c>
       <c r="B72">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="3"/>
@@ -1773,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="B73">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="3"/>
@@ -1789,7 +1787,7 @@
       </c>
       <c r="C74">
         <f t="shared" ref="C74:C91" ca="1" si="4">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1797,7 +1795,7 @@
         <v>7</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="4"/>
@@ -1809,11 +1807,11 @@
         <v>7</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1821,11 +1819,11 @@
         <v>7</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1833,7 +1831,7 @@
         <v>7</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="4"/>
@@ -1845,7 +1843,7 @@
         <v>7</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="4"/>
@@ -1857,7 +1855,7 @@
         <v>7</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="4"/>
@@ -1869,7 +1867,7 @@
         <v>7</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="4"/>
@@ -1881,11 +1879,11 @@
         <v>7</v>
       </c>
       <c r="B82">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1893,11 +1891,11 @@
         <v>7</v>
       </c>
       <c r="B83">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1905,11 +1903,11 @@
         <v>7</v>
       </c>
       <c r="B84">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1917,11 +1915,11 @@
         <v>7</v>
       </c>
       <c r="B85">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1929,11 +1927,11 @@
         <v>7</v>
       </c>
       <c r="B86">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1941,11 +1939,11 @@
         <v>7</v>
       </c>
       <c r="B87">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1953,11 +1951,11 @@
         <v>7</v>
       </c>
       <c r="B88">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1965,11 +1963,11 @@
         <v>7</v>
       </c>
       <c r="B89">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1977,7 +1975,7 @@
         <v>7</v>
       </c>
       <c r="B90">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="4"/>
@@ -1989,11 +1987,11 @@
         <v>7</v>
       </c>
       <c r="B91">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2013,11 +2011,11 @@
         <v>8</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2025,11 +2023,11 @@
         <v>8</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2037,11 +2035,11 @@
         <v>8</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2049,11 +2047,11 @@
         <v>8</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2061,7 +2059,7 @@
         <v>8</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
@@ -2073,7 +2071,7 @@
         <v>8</v>
       </c>
       <c r="B98">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
@@ -2085,11 +2083,11 @@
         <v>8</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2097,7 +2095,7 @@
         <v>8</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
@@ -2109,7 +2107,7 @@
         <v>8</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="5"/>
@@ -2121,7 +2119,7 @@
         <v>8</v>
       </c>
       <c r="B102">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="5"/>
@@ -2133,11 +2131,11 @@
         <v>8</v>
       </c>
       <c r="B103">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2145,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="B104">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="5"/>
@@ -2157,11 +2155,11 @@
         <v>8</v>
       </c>
       <c r="B105">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2169,11 +2167,11 @@
         <v>8</v>
       </c>
       <c r="B106">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2181,7 +2179,7 @@
         <v>8</v>
       </c>
       <c r="B107">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="5"/>
@@ -2193,7 +2191,7 @@
         <v>8</v>
       </c>
       <c r="B108">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="5"/>
@@ -2205,11 +2203,11 @@
         <v>8</v>
       </c>
       <c r="B109">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2229,11 +2227,11 @@
         <v>9</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2241,11 +2239,11 @@
         <v>9</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2253,11 +2251,11 @@
         <v>9</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2265,7 +2263,7 @@
         <v>9</v>
       </c>
       <c r="B114">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="6"/>
@@ -2277,7 +2275,7 @@
         <v>9</v>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="6"/>
@@ -2289,11 +2287,11 @@
         <v>9</v>
       </c>
       <c r="B116">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2301,7 +2299,7 @@
         <v>9</v>
       </c>
       <c r="B117">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="6"/>
@@ -2313,7 +2311,7 @@
         <v>9</v>
       </c>
       <c r="B118">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="6"/>
@@ -2325,7 +2323,7 @@
         <v>9</v>
       </c>
       <c r="B119">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="6"/>
@@ -2337,11 +2335,11 @@
         <v>9</v>
       </c>
       <c r="B120">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2349,7 +2347,7 @@
         <v>9</v>
       </c>
       <c r="B121">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="6"/>
@@ -2361,7 +2359,7 @@
         <v>9</v>
       </c>
       <c r="B122">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="6"/>
@@ -2373,11 +2371,11 @@
         <v>9</v>
       </c>
       <c r="B123">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2385,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="B124">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="6"/>
@@ -2397,11 +2395,11 @@
         <v>9</v>
       </c>
       <c r="B125">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2409,11 +2407,11 @@
         <v>9</v>
       </c>
       <c r="B126">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2421,11 +2419,11 @@
         <v>9</v>
       </c>
       <c r="B127">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2445,7 +2443,7 @@
         <v>10</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="7"/>
@@ -2457,11 +2455,11 @@
         <v>10</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2469,7 +2467,7 @@
         <v>10</v>
       </c>
       <c r="B131">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C131">
         <f t="shared" ca="1" si="7"/>
@@ -2481,7 +2479,7 @@
         <v>10</v>
       </c>
       <c r="B132">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="7"/>
@@ -2493,7 +2491,7 @@
         <v>10</v>
       </c>
       <c r="B133">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="7"/>
@@ -2505,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="B134">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="7"/>
@@ -2517,11 +2515,11 @@
         <v>10</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2529,7 +2527,7 @@
         <v>10</v>
       </c>
       <c r="B136">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C136">
         <f t="shared" ca="1" si="7"/>
@@ -2541,7 +2539,7 @@
         <v>10</v>
       </c>
       <c r="B137">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="7"/>
@@ -2553,11 +2551,11 @@
         <v>10</v>
       </c>
       <c r="B138">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2565,7 +2563,7 @@
         <v>10</v>
       </c>
       <c r="B139">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="7"/>
@@ -2577,11 +2575,11 @@
         <v>10</v>
       </c>
       <c r="B140">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2589,7 +2587,7 @@
         <v>10</v>
       </c>
       <c r="B141">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="7"/>
@@ -2601,11 +2599,11 @@
         <v>10</v>
       </c>
       <c r="B142">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2613,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="B143">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="7"/>
@@ -2625,11 +2623,11 @@
         <v>10</v>
       </c>
       <c r="B144">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2637,7 +2635,7 @@
         <v>10</v>
       </c>
       <c r="B145">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="7"/>
@@ -2661,11 +2659,11 @@
         <v>11</v>
       </c>
       <c r="B147">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2673,11 +2671,11 @@
         <v>11</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2685,7 +2683,7 @@
         <v>11</v>
       </c>
       <c r="B149">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="8"/>
@@ -2697,11 +2695,11 @@
         <v>11</v>
       </c>
       <c r="B150">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2709,7 +2707,7 @@
         <v>11</v>
       </c>
       <c r="B151">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="8"/>
@@ -2721,7 +2719,7 @@
         <v>11</v>
       </c>
       <c r="B152">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="8"/>
@@ -2733,7 +2731,7 @@
         <v>11</v>
       </c>
       <c r="B153">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="8"/>
@@ -2745,11 +2743,11 @@
         <v>11</v>
       </c>
       <c r="B154">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2757,11 +2755,11 @@
         <v>11</v>
       </c>
       <c r="B155">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2769,11 +2767,11 @@
         <v>11</v>
       </c>
       <c r="B156">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2781,7 +2779,7 @@
         <v>11</v>
       </c>
       <c r="B157">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="8"/>
@@ -2793,11 +2791,11 @@
         <v>11</v>
       </c>
       <c r="B158">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2805,7 +2803,7 @@
         <v>11</v>
       </c>
       <c r="B159">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="8"/>
@@ -2817,11 +2815,11 @@
         <v>11</v>
       </c>
       <c r="B160">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2829,7 +2827,7 @@
         <v>11</v>
       </c>
       <c r="B161">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="8"/>
@@ -2841,11 +2839,11 @@
         <v>11</v>
       </c>
       <c r="B162">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2853,7 +2851,7 @@
         <v>11</v>
       </c>
       <c r="B163">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="8"/>
@@ -2869,7 +2867,7 @@
       </c>
       <c r="C164">
         <f t="shared" ref="C164:C181" ca="1" si="9">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2877,11 +2875,11 @@
         <v>12</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2889,7 +2887,7 @@
         <v>12</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="9"/>
@@ -2901,11 +2899,11 @@
         <v>12</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C167">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -2913,11 +2911,11 @@
         <v>12</v>
       </c>
       <c r="B168">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2925,11 +2923,11 @@
         <v>12</v>
       </c>
       <c r="B169">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2937,11 +2935,11 @@
         <v>12</v>
       </c>
       <c r="B170">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C170">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2949,11 +2947,11 @@
         <v>12</v>
       </c>
       <c r="B171">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2961,11 +2959,11 @@
         <v>12</v>
       </c>
       <c r="B172">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2973,7 +2971,7 @@
         <v>12</v>
       </c>
       <c r="B173">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="9"/>
@@ -2985,7 +2983,7 @@
         <v>12</v>
       </c>
       <c r="B174">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="9"/>
@@ -2997,11 +2995,11 @@
         <v>12</v>
       </c>
       <c r="B175">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3009,7 +3007,7 @@
         <v>12</v>
       </c>
       <c r="B176">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="9"/>
@@ -3021,7 +3019,7 @@
         <v>12</v>
       </c>
       <c r="B177">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="9"/>
@@ -3033,11 +3031,11 @@
         <v>12</v>
       </c>
       <c r="B178">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3045,11 +3043,11 @@
         <v>12</v>
       </c>
       <c r="B179">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -3057,7 +3055,7 @@
         <v>12</v>
       </c>
       <c r="B180">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="9"/>
@@ -3069,11 +3067,11 @@
         <v>12</v>
       </c>
       <c r="B181">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -3093,11 +3091,11 @@
         <v>13</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -3105,11 +3103,11 @@
         <v>13</v>
       </c>
       <c r="B184">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3117,11 +3115,11 @@
         <v>13</v>
       </c>
       <c r="B185">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -3129,11 +3127,11 @@
         <v>13</v>
       </c>
       <c r="B186">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -3141,11 +3139,11 @@
         <v>13</v>
       </c>
       <c r="B187">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3153,11 +3151,11 @@
         <v>13</v>
       </c>
       <c r="B188">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -3165,7 +3163,7 @@
         <v>13</v>
       </c>
       <c r="B189">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="10"/>
@@ -3177,7 +3175,7 @@
         <v>13</v>
       </c>
       <c r="B190">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="10"/>
@@ -3189,11 +3187,11 @@
         <v>13</v>
       </c>
       <c r="B191">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -3201,11 +3199,11 @@
         <v>13</v>
       </c>
       <c r="B192">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -3213,11 +3211,11 @@
         <v>13</v>
       </c>
       <c r="B193">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -3225,11 +3223,11 @@
         <v>13</v>
       </c>
       <c r="B194">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -3237,11 +3235,11 @@
         <v>13</v>
       </c>
       <c r="B195">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -3249,7 +3247,7 @@
         <v>13</v>
       </c>
       <c r="B196">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="10"/>
@@ -3261,7 +3259,7 @@
         <v>13</v>
       </c>
       <c r="B197">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="10"/>
@@ -3273,7 +3271,7 @@
         <v>13</v>
       </c>
       <c r="B198">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="10"/>
@@ -3285,11 +3283,11 @@
         <v>13</v>
       </c>
       <c r="B199">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -3309,7 +3307,7 @@
         <v>14</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="11"/>
@@ -3321,7 +3319,7 @@
         <v>14</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="11"/>
@@ -3333,7 +3331,7 @@
         <v>14</v>
       </c>
       <c r="B203">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="11"/>
@@ -3345,11 +3343,11 @@
         <v>14</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3357,11 +3355,11 @@
         <v>14</v>
       </c>
       <c r="B205">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3369,7 +3367,7 @@
         <v>14</v>
       </c>
       <c r="B206">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="11"/>
@@ -3381,7 +3379,7 @@
         <v>14</v>
       </c>
       <c r="B207">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="11"/>
@@ -3393,7 +3391,7 @@
         <v>14</v>
       </c>
       <c r="B208">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="11"/>
@@ -3405,7 +3403,7 @@
         <v>14</v>
       </c>
       <c r="B209">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="11"/>
@@ -3417,11 +3415,11 @@
         <v>14</v>
       </c>
       <c r="B210">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3429,11 +3427,11 @@
         <v>14</v>
       </c>
       <c r="B211">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3441,7 +3439,7 @@
         <v>14</v>
       </c>
       <c r="B212">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="11"/>
@@ -3453,7 +3451,7 @@
         <v>14</v>
       </c>
       <c r="B213">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="11"/>
@@ -3465,11 +3463,11 @@
         <v>14</v>
       </c>
       <c r="B214">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3477,7 +3475,7 @@
         <v>14</v>
       </c>
       <c r="B215">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="11"/>
@@ -3489,7 +3487,7 @@
         <v>14</v>
       </c>
       <c r="B216">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="11"/>
@@ -3501,7 +3499,7 @@
         <v>14</v>
       </c>
       <c r="B217">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="11"/>
@@ -3517,7 +3515,7 @@
       </c>
       <c r="C218">
         <f t="shared" ref="C218:C235" ca="1" si="12">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3525,7 +3523,7 @@
         <v>15</v>
       </c>
       <c r="B219">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="12"/>
@@ -3537,11 +3535,11 @@
         <v>15</v>
       </c>
       <c r="B220">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3549,11 +3547,11 @@
         <v>15</v>
       </c>
       <c r="B221">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3561,11 +3559,11 @@
         <v>15</v>
       </c>
       <c r="B222">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3573,7 +3571,7 @@
         <v>15</v>
       </c>
       <c r="B223">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="12"/>
@@ -3585,7 +3583,7 @@
         <v>15</v>
       </c>
       <c r="B224">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="12"/>
@@ -3597,11 +3595,11 @@
         <v>15</v>
       </c>
       <c r="B225">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3609,11 +3607,11 @@
         <v>15</v>
       </c>
       <c r="B226">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3621,11 +3619,11 @@
         <v>15</v>
       </c>
       <c r="B227">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3633,11 +3631,11 @@
         <v>15</v>
       </c>
       <c r="B228">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3645,7 +3643,7 @@
         <v>15</v>
       </c>
       <c r="B229">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C229">
         <f t="shared" ca="1" si="12"/>
@@ -3657,11 +3655,11 @@
         <v>15</v>
       </c>
       <c r="B230">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C230">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3669,11 +3667,11 @@
         <v>15</v>
       </c>
       <c r="B231">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3681,7 +3679,7 @@
         <v>15</v>
       </c>
       <c r="B232">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="12"/>
@@ -3693,11 +3691,11 @@
         <v>15</v>
       </c>
       <c r="B233">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3705,11 +3703,11 @@
         <v>15</v>
       </c>
       <c r="B234">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -3717,7 +3715,7 @@
         <v>15</v>
       </c>
       <c r="B235">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="12"/>
@@ -3733,7 +3731,7 @@
       </c>
       <c r="C236">
         <f t="shared" ref="C236:C249" ca="1" si="13">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -3741,7 +3739,7 @@
         <v>16</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="13"/>
@@ -3753,11 +3751,11 @@
         <v>16</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3765,7 +3763,7 @@
         <v>16</v>
       </c>
       <c r="B239">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="13"/>
@@ -3777,11 +3775,11 @@
         <v>16</v>
       </c>
       <c r="B240">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3789,7 +3787,7 @@
         <v>16</v>
       </c>
       <c r="B241">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="13"/>
@@ -3801,11 +3799,11 @@
         <v>16</v>
       </c>
       <c r="B242">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3813,7 +3811,7 @@
         <v>16</v>
       </c>
       <c r="B243">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="13"/>
@@ -3825,7 +3823,7 @@
         <v>16</v>
       </c>
       <c r="B244">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="13"/>
@@ -3837,11 +3835,11 @@
         <v>16</v>
       </c>
       <c r="B245">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3849,11 +3847,11 @@
         <v>16</v>
       </c>
       <c r="B246">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3861,7 +3859,7 @@
         <v>16</v>
       </c>
       <c r="B247">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="13"/>
@@ -3873,11 +3871,11 @@
         <v>16</v>
       </c>
       <c r="B248">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3885,7 +3883,7 @@
         <v>16</v>
       </c>
       <c r="B249">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="13"/>
@@ -3897,11 +3895,11 @@
         <v>16</v>
       </c>
       <c r="B250">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C250">
         <f t="shared" ref="C250:C263" ca="1" si="14">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3909,11 +3907,11 @@
         <v>16</v>
       </c>
       <c r="B251">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C251">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3921,7 +3919,7 @@
         <v>16</v>
       </c>
       <c r="B252">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C252">
         <f t="shared" ca="1" si="14"/>
@@ -3933,11 +3931,11 @@
         <v>16</v>
       </c>
       <c r="B253">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C253">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3949,7 +3947,7 @@
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3957,7 +3955,7 @@
         <v>17</v>
       </c>
       <c r="B255">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="14"/>
@@ -3969,7 +3967,7 @@
         <v>17</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="14"/>
@@ -3981,11 +3979,11 @@
         <v>17</v>
       </c>
       <c r="B257">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C257">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3993,7 +3991,7 @@
         <v>17</v>
       </c>
       <c r="B258">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C258">
         <f t="shared" ca="1" si="14"/>
@@ -4005,11 +4003,11 @@
         <v>17</v>
       </c>
       <c r="B259">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C259">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -4017,7 +4015,7 @@
         <v>17</v>
       </c>
       <c r="B260">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C260">
         <f t="shared" ca="1" si="14"/>
@@ -4029,11 +4027,11 @@
         <v>17</v>
       </c>
       <c r="B261">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C261">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -4041,11 +4039,11 @@
         <v>17</v>
       </c>
       <c r="B262">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C262">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -4053,11 +4051,11 @@
         <v>17</v>
       </c>
       <c r="B263">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C263">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -4065,7 +4063,7 @@
         <v>17</v>
       </c>
       <c r="B264">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C264">
         <f t="shared" ref="C264:C277" ca="1" si="15">RANDBETWEEN(0,1)</f>
@@ -4077,7 +4075,7 @@
         <v>17</v>
       </c>
       <c r="B265">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C265">
         <f t="shared" ca="1" si="15"/>
@@ -4089,7 +4087,7 @@
         <v>17</v>
       </c>
       <c r="B266">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C266">
         <f t="shared" ca="1" si="15"/>
@@ -4101,7 +4099,7 @@
         <v>17</v>
       </c>
       <c r="B267">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C267">
         <f t="shared" ca="1" si="15"/>
@@ -4113,7 +4111,7 @@
         <v>17</v>
       </c>
       <c r="B268">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C268">
         <f t="shared" ca="1" si="15"/>
@@ -4125,7 +4123,7 @@
         <v>17</v>
       </c>
       <c r="B269">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C269">
         <f t="shared" ca="1" si="15"/>
@@ -4137,7 +4135,7 @@
         <v>17</v>
       </c>
       <c r="B270">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C270">
         <f t="shared" ca="1" si="15"/>
@@ -4149,11 +4147,11 @@
         <v>17</v>
       </c>
       <c r="B271">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C271">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -4173,7 +4171,7 @@
         <v>18</v>
       </c>
       <c r="B273">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C273">
         <f t="shared" ca="1" si="15"/>
@@ -4185,11 +4183,11 @@
         <v>18</v>
       </c>
       <c r="B274">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C274">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -4197,11 +4195,11 @@
         <v>18</v>
       </c>
       <c r="B275">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C275">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -4209,7 +4207,7 @@
         <v>18</v>
       </c>
       <c r="B276">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C276">
         <f t="shared" ca="1" si="15"/>
@@ -4221,11 +4219,11 @@
         <v>18</v>
       </c>
       <c r="B277">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C277">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -4233,7 +4231,7 @@
         <v>18</v>
       </c>
       <c r="B278">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C278">
         <f t="shared" ref="C278:C291" ca="1" si="16">RANDBETWEEN(0,1)</f>
@@ -4245,11 +4243,11 @@
         <v>18</v>
       </c>
       <c r="B279">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C279">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -4257,11 +4255,11 @@
         <v>18</v>
       </c>
       <c r="B280">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C280">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -4269,11 +4267,11 @@
         <v>18</v>
       </c>
       <c r="B281">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C281">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -4281,11 +4279,11 @@
         <v>18</v>
       </c>
       <c r="B282">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C282">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -4293,7 +4291,7 @@
         <v>18</v>
       </c>
       <c r="B283">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C283">
         <f t="shared" ca="1" si="16"/>
@@ -4305,11 +4303,11 @@
         <v>18</v>
       </c>
       <c r="B284">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C284">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -4317,11 +4315,11 @@
         <v>18</v>
       </c>
       <c r="B285">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C285">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -4329,7 +4327,7 @@
         <v>18</v>
       </c>
       <c r="B286">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C286">
         <f t="shared" ca="1" si="16"/>
@@ -4341,11 +4339,11 @@
         <v>18</v>
       </c>
       <c r="B287">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C287">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -4353,7 +4351,7 @@
         <v>18</v>
       </c>
       <c r="B288">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C288">
         <f t="shared" ca="1" si="16"/>
@@ -4365,11 +4363,11 @@
         <v>18</v>
       </c>
       <c r="B289">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C289">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -4389,7 +4387,7 @@
         <v>19</v>
       </c>
       <c r="B291">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C291">
         <f t="shared" ca="1" si="16"/>
@@ -4401,7 +4399,7 @@
         <v>19</v>
       </c>
       <c r="B292">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C292">
         <f t="shared" ref="C292:C307" ca="1" si="17">RANDBETWEEN(0,1)</f>
@@ -4413,7 +4411,7 @@
         <v>19</v>
       </c>
       <c r="B293">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C293">
         <f t="shared" ca="1" si="17"/>
@@ -4425,7 +4423,7 @@
         <v>19</v>
       </c>
       <c r="B294">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C294">
         <f t="shared" ca="1" si="17"/>
@@ -4437,7 +4435,7 @@
         <v>19</v>
       </c>
       <c r="B295">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C295">
         <f t="shared" ca="1" si="17"/>
@@ -4449,11 +4447,11 @@
         <v>19</v>
       </c>
       <c r="B296">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C296">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -4461,11 +4459,11 @@
         <v>19</v>
       </c>
       <c r="B297">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C297">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -4473,7 +4471,7 @@
         <v>19</v>
       </c>
       <c r="B298">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C298">
         <f t="shared" ca="1" si="17"/>
@@ -4485,11 +4483,11 @@
         <v>19</v>
       </c>
       <c r="B299">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C299">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -4497,11 +4495,11 @@
         <v>19</v>
       </c>
       <c r="B300">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C300">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -4509,11 +4507,11 @@
         <v>19</v>
       </c>
       <c r="B301">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C301">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -4521,11 +4519,11 @@
         <v>19</v>
       </c>
       <c r="B302">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C302">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -4533,7 +4531,7 @@
         <v>19</v>
       </c>
       <c r="B303">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C303">
         <f t="shared" ca="1" si="17"/>
@@ -4545,11 +4543,11 @@
         <v>19</v>
       </c>
       <c r="B304">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C304">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -4557,7 +4555,7 @@
         <v>19</v>
       </c>
       <c r="B305">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C305">
         <f t="shared" ca="1" si="17"/>
@@ -4569,7 +4567,7 @@
         <v>19</v>
       </c>
       <c r="B306">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C306">
         <f t="shared" ca="1" si="17"/>
@@ -4581,7 +4579,7 @@
         <v>19</v>
       </c>
       <c r="B307">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C307">
         <f t="shared" ca="1" si="17"/>
@@ -4605,11 +4603,11 @@
         <v>20</v>
       </c>
       <c r="B309">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C309">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -4617,7 +4615,7 @@
         <v>20</v>
       </c>
       <c r="B310">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C310">
         <f t="shared" ca="1" si="18"/>
@@ -4629,11 +4627,11 @@
         <v>20</v>
       </c>
       <c r="B311">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C311">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -4641,7 +4639,7 @@
         <v>20</v>
       </c>
       <c r="B312">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C312">
         <f t="shared" ca="1" si="18"/>
@@ -4653,11 +4651,11 @@
         <v>20</v>
       </c>
       <c r="B313">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C313">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4665,11 +4663,11 @@
         <v>20</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C314">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -4677,11 +4675,11 @@
         <v>20</v>
       </c>
       <c r="B315">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C315">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -4689,7 +4687,7 @@
         <v>20</v>
       </c>
       <c r="B316">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C316">
         <f t="shared" ca="1" si="18"/>
@@ -4701,11 +4699,11 @@
         <v>20</v>
       </c>
       <c r="B317">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C317">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -4713,11 +4711,11 @@
         <v>20</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C318">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -4725,11 +4723,11 @@
         <v>20</v>
       </c>
       <c r="B319">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C319">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -4737,7 +4735,7 @@
         <v>20</v>
       </c>
       <c r="B320">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C320">
         <f t="shared" ca="1" si="18"/>
@@ -4749,11 +4747,11 @@
         <v>20</v>
       </c>
       <c r="B321">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C321">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -4761,7 +4759,7 @@
         <v>20</v>
       </c>
       <c r="B322">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C322">
         <f t="shared" ca="1" si="18"/>
@@ -4773,7 +4771,7 @@
         <v>20</v>
       </c>
       <c r="B323">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C323">
         <f t="shared" ca="1" si="18"/>
@@ -4785,7 +4783,7 @@
         <v>20</v>
       </c>
       <c r="B324">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C324">
         <f t="shared" ca="1" si="18"/>
@@ -4797,7 +4795,7 @@
         <v>20</v>
       </c>
       <c r="B325">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C325">
         <f t="shared" ca="1" si="18"/>
@@ -4821,7 +4819,7 @@
         <v>21</v>
       </c>
       <c r="B327">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C327">
         <f t="shared" ca="1" si="19"/>
@@ -4833,7 +4831,7 @@
         <v>21</v>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C328">
         <f t="shared" ca="1" si="19"/>
@@ -4845,7 +4843,7 @@
         <v>21</v>
       </c>
       <c r="B329">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C329">
         <f t="shared" ca="1" si="19"/>
@@ -4857,7 +4855,7 @@
         <v>21</v>
       </c>
       <c r="B330">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C330">
         <f t="shared" ca="1" si="19"/>
@@ -4869,11 +4867,11 @@
         <v>21</v>
       </c>
       <c r="B331">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C331">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4881,11 +4879,11 @@
         <v>21</v>
       </c>
       <c r="B332">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C332">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4893,7 +4891,7 @@
         <v>21</v>
       </c>
       <c r="B333">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C333">
         <f t="shared" ca="1" si="19"/>
@@ -4905,11 +4903,11 @@
         <v>21</v>
       </c>
       <c r="B334">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C334">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4917,7 +4915,7 @@
         <v>21</v>
       </c>
       <c r="B335">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C335">
         <f t="shared" ca="1" si="19"/>
@@ -4929,11 +4927,11 @@
         <v>21</v>
       </c>
       <c r="B336">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C336">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4941,11 +4939,11 @@
         <v>21</v>
       </c>
       <c r="B337">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C337">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4953,11 +4951,11 @@
         <v>21</v>
       </c>
       <c r="B338">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C338">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4965,7 +4963,7 @@
         <v>21</v>
       </c>
       <c r="B339">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C339">
         <f t="shared" ca="1" si="19"/>
@@ -4977,7 +4975,7 @@
         <v>21</v>
       </c>
       <c r="B340">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C340">
         <f t="shared" ca="1" si="19"/>
@@ -4989,7 +4987,7 @@
         <v>21</v>
       </c>
       <c r="B341">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C341">
         <f t="shared" ca="1" si="19"/>
@@ -5001,11 +4999,11 @@
         <v>21</v>
       </c>
       <c r="B342">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C342">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -5013,11 +5011,11 @@
         <v>21</v>
       </c>
       <c r="B343">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C343">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -5029,7 +5027,7 @@
       </c>
       <c r="C344">
         <f t="shared" ref="C344:C361" ca="1" si="20">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -5037,7 +5035,7 @@
         <v>22</v>
       </c>
       <c r="B345">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C345">
         <f t="shared" ca="1" si="20"/>
@@ -5049,7 +5047,7 @@
         <v>22</v>
       </c>
       <c r="B346">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C346">
         <f t="shared" ca="1" si="20"/>
@@ -5061,11 +5059,11 @@
         <v>22</v>
       </c>
       <c r="B347">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C347">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -5073,11 +5071,11 @@
         <v>22</v>
       </c>
       <c r="B348">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C348">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -5085,11 +5083,11 @@
         <v>22</v>
       </c>
       <c r="B349">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C349">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -5097,7 +5095,7 @@
         <v>22</v>
       </c>
       <c r="B350">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C350">
         <f t="shared" ca="1" si="20"/>
@@ -5109,11 +5107,11 @@
         <v>22</v>
       </c>
       <c r="B351">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C351">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -5121,7 +5119,7 @@
         <v>22</v>
       </c>
       <c r="B352">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C352">
         <f t="shared" ca="1" si="20"/>
@@ -5133,7 +5131,7 @@
         <v>22</v>
       </c>
       <c r="B353">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C353">
         <f t="shared" ca="1" si="20"/>
@@ -5145,7 +5143,7 @@
         <v>22</v>
       </c>
       <c r="B354">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C354">
         <f t="shared" ca="1" si="20"/>
@@ -5157,7 +5155,7 @@
         <v>22</v>
       </c>
       <c r="B355">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C355">
         <f t="shared" ca="1" si="20"/>
@@ -5169,7 +5167,7 @@
         <v>22</v>
       </c>
       <c r="B356">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C356">
         <f t="shared" ca="1" si="20"/>
@@ -5181,7 +5179,7 @@
         <v>22</v>
       </c>
       <c r="B357">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C357">
         <f t="shared" ca="1" si="20"/>
@@ -5193,7 +5191,7 @@
         <v>22</v>
       </c>
       <c r="B358">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C358">
         <f t="shared" ca="1" si="20"/>
@@ -5205,7 +5203,7 @@
         <v>22</v>
       </c>
       <c r="B359">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C359">
         <f t="shared" ca="1" si="20"/>
@@ -5217,11 +5215,11 @@
         <v>22</v>
       </c>
       <c r="B360">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C360">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -5229,7 +5227,7 @@
         <v>22</v>
       </c>
       <c r="B361">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C361">
         <f t="shared" ca="1" si="20"/>
@@ -5237,7 +5235,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C361"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/searchesdata.xlsx
+++ b/searchesdata.xlsx
@@ -233,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +413,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -574,8 +580,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -899,7 +906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -918,12 +927,11 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -935,7 +943,7 @@
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -946,8 +954,8 @@
         <v>42</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C19" ca="1" si="0">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <f t="shared" ref="C4:C9" ca="1" si="0">RANDBETWEEN(0,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -983,7 +991,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1014,48 +1022,44 @@
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>70</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>71</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>73</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>74</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1066,7 +1070,7 @@
         <v>106</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1078,8 +1082,8 @@
         <v>107</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="C15:C78" ca="1" si="1">RANDBETWEEN(0,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1090,8 +1094,8 @@
         <v>108</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1102,7 +1106,7 @@
         <v>110</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1114,7 +1118,7 @@
         <v>111</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1126,7 +1130,7 @@
         <v>112</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1138,8 +1142,8 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:C37" ca="1" si="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1151,7 +1155,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1163,7 +1167,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1223,7 +1227,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1295,7 +1299,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1307,7 +1311,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1331,7 +1335,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1354,8 +1358,8 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:C55" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,8 +1370,8 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,8 +1382,8 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,8 +1394,8 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1402,7 +1406,7 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1414,7 +1418,7 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1426,7 +1430,7 @@
         <v>64</v>
       </c>
       <c r="C44">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1438,7 +1442,7 @@
         <v>65</v>
       </c>
       <c r="C45">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1450,7 +1454,7 @@
         <v>70</v>
       </c>
       <c r="C46">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1462,7 +1466,7 @@
         <v>71</v>
       </c>
       <c r="C47">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1474,7 +1478,7 @@
         <v>73</v>
       </c>
       <c r="C48">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1486,7 +1490,7 @@
         <v>74</v>
       </c>
       <c r="C49">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1498,8 +1502,8 @@
         <v>106</v>
       </c>
       <c r="C50">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,7 +1514,7 @@
         <v>107</v>
       </c>
       <c r="C51">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1522,8 +1526,8 @@
         <v>108</v>
       </c>
       <c r="C52">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1534,7 +1538,7 @@
         <v>110</v>
       </c>
       <c r="C53">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1546,8 +1550,8 @@
         <v>111</v>
       </c>
       <c r="C54">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1558,7 +1562,7 @@
         <v>112</v>
       </c>
       <c r="C55">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1570,8 +1574,8 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56:C73" ca="1" si="3">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1582,8 +1586,8 @@
         <v>40</v>
       </c>
       <c r="C57">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1594,8 +1598,8 @@
         <v>42</v>
       </c>
       <c r="C58">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1606,7 +1610,7 @@
         <v>46</v>
       </c>
       <c r="C59">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1618,8 +1622,8 @@
         <v>47</v>
       </c>
       <c r="C60">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1630,7 +1634,7 @@
         <v>48</v>
       </c>
       <c r="C61">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1642,7 +1646,7 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1654,8 +1658,8 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1666,8 +1670,8 @@
         <v>70</v>
       </c>
       <c r="C64">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1678,8 +1682,8 @@
         <v>71</v>
       </c>
       <c r="C65">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1690,8 +1694,8 @@
         <v>73</v>
       </c>
       <c r="C66">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1702,7 +1706,7 @@
         <v>74</v>
       </c>
       <c r="C67">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1714,7 +1718,7 @@
         <v>106</v>
       </c>
       <c r="C68">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1726,8 +1730,8 @@
         <v>107</v>
       </c>
       <c r="C69">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1738,7 +1742,7 @@
         <v>108</v>
       </c>
       <c r="C70">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1750,8 +1754,8 @@
         <v>110</v>
       </c>
       <c r="C71">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1762,7 +1766,7 @@
         <v>111</v>
       </c>
       <c r="C72">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1774,20 +1778,19 @@
         <v>112</v>
       </c>
       <c r="C73">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>1</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C91" ca="1" si="4">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1798,7 +1801,7 @@
         <v>40</v>
       </c>
       <c r="C75">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1810,7 +1813,7 @@
         <v>42</v>
       </c>
       <c r="C76">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1822,8 +1825,8 @@
         <v>46</v>
       </c>
       <c r="C77">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1834,7 +1837,7 @@
         <v>47</v>
       </c>
       <c r="C78">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1846,7 +1849,7 @@
         <v>48</v>
       </c>
       <c r="C79">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="C79:C81" ca="1" si="2">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1858,8 +1861,8 @@
         <v>64</v>
       </c>
       <c r="C80">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1870,7 +1873,7 @@
         <v>65</v>
       </c>
       <c r="C81">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1878,23 +1881,21 @@
       <c r="A82" t="s">
         <v>7</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>70</v>
       </c>
       <c r="C82">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>71</v>
       </c>
       <c r="C83">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1902,24 +1903,22 @@
       <c r="A84" t="s">
         <v>7</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>73</v>
       </c>
       <c r="C84">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>74</v>
       </c>
       <c r="C85">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1930,8 +1929,8 @@
         <v>106</v>
       </c>
       <c r="C86">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ref="C86:C99" ca="1" si="3">RANDBETWEEN(0,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1942,8 +1941,8 @@
         <v>107</v>
       </c>
       <c r="C87">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1954,7 +1953,7 @@
         <v>108</v>
       </c>
       <c r="C88">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1966,7 +1965,7 @@
         <v>110</v>
       </c>
       <c r="C89">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1978,7 +1977,7 @@
         <v>111</v>
       </c>
       <c r="C90">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1990,19 +1989,18 @@
         <v>112</v>
       </c>
       <c r="C91">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>1</v>
       </c>
       <c r="C92">
-        <f t="shared" ref="C92:C109" ca="1" si="5">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2014,8 +2012,8 @@
         <v>40</v>
       </c>
       <c r="C93">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2026,8 +2024,8 @@
         <v>42</v>
       </c>
       <c r="C94">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2038,7 +2036,7 @@
         <v>46</v>
       </c>
       <c r="C95">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2050,8 +2048,8 @@
         <v>47</v>
       </c>
       <c r="C96">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2062,7 +2060,7 @@
         <v>48</v>
       </c>
       <c r="C97">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2074,8 +2072,8 @@
         <v>64</v>
       </c>
       <c r="C98">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2086,55 +2084,51 @@
         <v>65</v>
       </c>
       <c r="C99">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>70</v>
       </c>
       <c r="C100">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>71</v>
       </c>
       <c r="C101">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>73</v>
       </c>
       <c r="C102">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1">
         <v>74</v>
       </c>
       <c r="C103">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -2146,8 +2140,8 @@
         <v>106</v>
       </c>
       <c r="C104">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="C104:C117" ca="1" si="4">RANDBETWEEN(0,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2158,7 +2152,7 @@
         <v>107</v>
       </c>
       <c r="C105">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2170,8 +2164,8 @@
         <v>108</v>
       </c>
       <c r="C106">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2182,7 +2176,7 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2194,7 +2188,7 @@
         <v>111</v>
       </c>
       <c r="C108">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2206,20 +2200,19 @@
         <v>112</v>
       </c>
       <c r="C109">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>9</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1">
         <v>1</v>
       </c>
       <c r="C110">
-        <f t="shared" ref="C110:C127" ca="1" si="6">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2230,8 +2223,8 @@
         <v>40</v>
       </c>
       <c r="C111">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2242,7 +2235,7 @@
         <v>42</v>
       </c>
       <c r="C112">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2254,7 +2247,7 @@
         <v>46</v>
       </c>
       <c r="C113">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2266,8 +2259,8 @@
         <v>47</v>
       </c>
       <c r="C114">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2278,8 +2271,8 @@
         <v>48</v>
       </c>
       <c r="C115">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2290,7 +2283,7 @@
         <v>64</v>
       </c>
       <c r="C116">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2302,7 +2295,7 @@
         <v>65</v>
       </c>
       <c r="C117">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2310,48 +2303,44 @@
       <c r="A118" t="s">
         <v>9</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="1">
         <v>70</v>
       </c>
       <c r="C118">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>9</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="1">
         <v>71</v>
       </c>
       <c r="C119">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>9</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="1">
         <v>73</v>
       </c>
       <c r="C120">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>9</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="1">
         <v>74</v>
       </c>
       <c r="C121">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2362,8 +2351,8 @@
         <v>106</v>
       </c>
       <c r="C122">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="C122:C153" ca="1" si="5">RANDBETWEEN(0,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2374,7 +2363,7 @@
         <v>107</v>
       </c>
       <c r="C123">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2386,8 +2375,8 @@
         <v>108</v>
       </c>
       <c r="C124">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2398,8 +2387,8 @@
         <v>110</v>
       </c>
       <c r="C125">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2410,7 +2399,7 @@
         <v>111</v>
       </c>
       <c r="C126">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -2422,8 +2411,8 @@
         <v>112</v>
       </c>
       <c r="C127">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2434,8 +2423,8 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <f t="shared" ref="C128:C145" ca="1" si="7">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2446,7 +2435,7 @@
         <v>40</v>
       </c>
       <c r="C129">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -2458,8 +2447,8 @@
         <v>42</v>
       </c>
       <c r="C130">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2470,8 +2459,8 @@
         <v>46</v>
       </c>
       <c r="C131">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2482,7 +2471,7 @@
         <v>47</v>
       </c>
       <c r="C132">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -2494,8 +2483,8 @@
         <v>48</v>
       </c>
       <c r="C133">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2506,8 +2495,8 @@
         <v>64</v>
       </c>
       <c r="C134">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2518,8 +2507,8 @@
         <v>65</v>
       </c>
       <c r="C135">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2530,8 +2519,8 @@
         <v>70</v>
       </c>
       <c r="C136">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2542,8 +2531,8 @@
         <v>71</v>
       </c>
       <c r="C137">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2554,7 +2543,7 @@
         <v>73</v>
       </c>
       <c r="C138">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -2566,8 +2555,8 @@
         <v>74</v>
       </c>
       <c r="C139">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2578,7 +2567,7 @@
         <v>106</v>
       </c>
       <c r="C140">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2590,7 +2579,7 @@
         <v>107</v>
       </c>
       <c r="C141">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2602,7 +2591,7 @@
         <v>108</v>
       </c>
       <c r="C142">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2614,8 +2603,8 @@
         <v>110</v>
       </c>
       <c r="C143">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2626,8 +2615,8 @@
         <v>111</v>
       </c>
       <c r="C144">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2638,20 +2627,19 @@
         <v>112</v>
       </c>
       <c r="C145">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>11</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="1">
         <v>1</v>
       </c>
       <c r="C146">
-        <f t="shared" ref="C146:C163" ca="1" si="8">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2662,8 +2650,8 @@
         <v>40</v>
       </c>
       <c r="C147">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2674,8 +2662,8 @@
         <v>42</v>
       </c>
       <c r="C148">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2686,7 +2674,7 @@
         <v>46</v>
       </c>
       <c r="C149">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2698,8 +2686,8 @@
         <v>47</v>
       </c>
       <c r="C150">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2710,7 +2698,7 @@
         <v>48</v>
       </c>
       <c r="C151">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -2722,8 +2710,8 @@
         <v>64</v>
       </c>
       <c r="C152">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2734,7 +2722,7 @@
         <v>65</v>
       </c>
       <c r="C153">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2742,23 +2730,21 @@
       <c r="A154" t="s">
         <v>11</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="1">
         <v>70</v>
       </c>
       <c r="C154">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>11</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="1">
         <v>71</v>
       </c>
       <c r="C155">
-        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2766,24 +2752,22 @@
       <c r="A156" t="s">
         <v>11</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="1">
         <v>73</v>
       </c>
       <c r="C156">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>11</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="1">
         <v>74</v>
       </c>
       <c r="C157">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2794,7 +2778,7 @@
         <v>106</v>
       </c>
       <c r="C158">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="C158:C189" ca="1" si="6">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2806,7 +2790,7 @@
         <v>107</v>
       </c>
       <c r="C159">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2818,7 +2802,7 @@
         <v>108</v>
       </c>
       <c r="C160">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2830,8 +2814,8 @@
         <v>110</v>
       </c>
       <c r="C161">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2842,7 +2826,7 @@
         <v>111</v>
       </c>
       <c r="C162">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2854,7 +2838,7 @@
         <v>112</v>
       </c>
       <c r="C163">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2866,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="C164">
-        <f t="shared" ref="C164:C181" ca="1" si="9">RANDBETWEEN(0,1)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2878,8 +2862,8 @@
         <v>40</v>
       </c>
       <c r="C165">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2890,7 +2874,7 @@
         <v>42</v>
       </c>
       <c r="C166">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2902,7 +2886,7 @@
         <v>46</v>
       </c>
       <c r="C167">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2914,8 +2898,8 @@
         <v>47</v>
       </c>
       <c r="C168">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2926,7 +2910,7 @@
         <v>48</v>
       </c>
       <c r="C169">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2938,8 +2922,8 @@
         <v>64</v>
       </c>
       <c r="C170">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2950,7 +2934,7 @@
         <v>65</v>
       </c>
       <c r="C171">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2962,8 +2946,8 @@
         <v>70</v>
       </c>
       <c r="C172">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2974,7 +2958,7 @@
         <v>71</v>
       </c>
       <c r="C173">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2986,8 +2970,8 @@
         <v>73</v>
       </c>
       <c r="C174">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2998,8 +2982,8 @@
         <v>74</v>
       </c>
       <c r="C175">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3010,8 +2994,8 @@
         <v>106</v>
       </c>
       <c r="C176">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3022,8 +3006,8 @@
         <v>107</v>
       </c>
       <c r="C177">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3034,7 +3018,7 @@
         <v>108</v>
       </c>
       <c r="C178">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3046,7 +3030,7 @@
         <v>110</v>
       </c>
       <c r="C179">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3058,7 +3042,7 @@
         <v>111</v>
       </c>
       <c r="C180">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3070,7 +3054,7 @@
         <v>112</v>
       </c>
       <c r="C181">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3078,11 +3062,10 @@
       <c r="A182" t="s">
         <v>13</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="1">
         <v>1</v>
       </c>
       <c r="C182">
-        <f t="shared" ref="C182:C199" ca="1" si="10">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3094,8 +3077,8 @@
         <v>40</v>
       </c>
       <c r="C183">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -3106,8 +3089,8 @@
         <v>42</v>
       </c>
       <c r="C184">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3118,8 +3101,8 @@
         <v>46</v>
       </c>
       <c r="C185">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -3130,8 +3113,8 @@
         <v>47</v>
       </c>
       <c r="C186">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -3142,8 +3125,8 @@
         <v>48</v>
       </c>
       <c r="C187">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3154,8 +3137,8 @@
         <v>64</v>
       </c>
       <c r="C188">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -3166,7 +3149,7 @@
         <v>65</v>
       </c>
       <c r="C189">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3174,47 +3157,43 @@
       <c r="A190" t="s">
         <v>13</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="1">
         <v>70</v>
       </c>
       <c r="C190">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>13</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="1">
         <v>71</v>
       </c>
       <c r="C191">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>13</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="1">
         <v>73</v>
       </c>
       <c r="C192">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>13</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="1">
         <v>74</v>
       </c>
       <c r="C193">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3226,7 +3205,7 @@
         <v>106</v>
       </c>
       <c r="C194">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="C194:C207" ca="1" si="7">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3238,7 +3217,7 @@
         <v>107</v>
       </c>
       <c r="C195">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -3250,8 +3229,8 @@
         <v>108</v>
       </c>
       <c r="C196">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -3262,8 +3241,8 @@
         <v>110</v>
       </c>
       <c r="C197">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3274,7 +3253,7 @@
         <v>111</v>
       </c>
       <c r="C198">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3286,19 +3265,18 @@
         <v>112</v>
       </c>
       <c r="C199">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>14</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="1">
         <v>1</v>
       </c>
       <c r="C200">
-        <f t="shared" ref="C200:C217" ca="1" si="11">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3310,8 +3288,8 @@
         <v>40</v>
       </c>
       <c r="C201">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3322,8 +3300,8 @@
         <v>42</v>
       </c>
       <c r="C202">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3334,7 +3312,7 @@
         <v>46</v>
       </c>
       <c r="C203">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -3346,7 +3324,7 @@
         <v>47</v>
       </c>
       <c r="C204">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3358,8 +3336,8 @@
         <v>48</v>
       </c>
       <c r="C205">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3370,7 +3348,7 @@
         <v>64</v>
       </c>
       <c r="C206">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -3382,56 +3360,52 @@
         <v>65</v>
       </c>
       <c r="C207">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>14</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="1">
         <v>70</v>
       </c>
       <c r="C208">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>14</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="1">
         <v>71</v>
       </c>
       <c r="C209">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>14</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="1">
         <v>73</v>
       </c>
       <c r="C210">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>14</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="1">
         <v>74</v>
       </c>
       <c r="C211">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3442,8 +3416,8 @@
         <v>106</v>
       </c>
       <c r="C212">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ref="C212:C243" ca="1" si="8">RANDBETWEEN(0,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3454,7 +3428,7 @@
         <v>107</v>
       </c>
       <c r="C213">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3466,7 +3440,7 @@
         <v>108</v>
       </c>
       <c r="C214">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3478,8 +3452,8 @@
         <v>110</v>
       </c>
       <c r="C215">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3490,8 +3464,8 @@
         <v>111</v>
       </c>
       <c r="C216">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3502,7 +3476,7 @@
         <v>112</v>
       </c>
       <c r="C217">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3514,8 +3488,8 @@
         <v>1</v>
       </c>
       <c r="C218">
-        <f t="shared" ref="C218:C235" ca="1" si="12">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3526,8 +3500,8 @@
         <v>40</v>
       </c>
       <c r="C219">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3538,8 +3512,8 @@
         <v>42</v>
       </c>
       <c r="C220">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3550,7 +3524,7 @@
         <v>46</v>
       </c>
       <c r="C221">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3562,7 +3536,7 @@
         <v>47</v>
       </c>
       <c r="C222">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3574,7 +3548,7 @@
         <v>48</v>
       </c>
       <c r="C223">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3586,7 +3560,7 @@
         <v>64</v>
       </c>
       <c r="C224">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3598,8 +3572,8 @@
         <v>65</v>
       </c>
       <c r="C225">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3610,8 +3584,8 @@
         <v>70</v>
       </c>
       <c r="C226">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3622,7 +3596,7 @@
         <v>71</v>
       </c>
       <c r="C227">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3634,8 +3608,8 @@
         <v>73</v>
       </c>
       <c r="C228">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3646,7 +3620,7 @@
         <v>74</v>
       </c>
       <c r="C229">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3658,7 +3632,7 @@
         <v>106</v>
       </c>
       <c r="C230">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3670,8 +3644,8 @@
         <v>107</v>
       </c>
       <c r="C231">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3682,7 +3656,7 @@
         <v>108</v>
       </c>
       <c r="C232">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3694,7 +3668,7 @@
         <v>110</v>
       </c>
       <c r="C233">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3706,7 +3680,7 @@
         <v>111</v>
       </c>
       <c r="C234">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3718,7 +3692,7 @@
         <v>112</v>
       </c>
       <c r="C235">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3726,11 +3700,10 @@
       <c r="A236" t="s">
         <v>16</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="1">
         <v>1</v>
       </c>
       <c r="C236">
-        <f t="shared" ref="C236:C249" ca="1" si="13">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3742,8 +3715,8 @@
         <v>40</v>
       </c>
       <c r="C237">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -3754,7 +3727,7 @@
         <v>42</v>
       </c>
       <c r="C238">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3766,8 +3739,8 @@
         <v>46</v>
       </c>
       <c r="C239">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3778,7 +3751,7 @@
         <v>47</v>
       </c>
       <c r="C240">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3790,7 +3763,7 @@
         <v>48</v>
       </c>
       <c r="C241">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3802,7 +3775,7 @@
         <v>64</v>
       </c>
       <c r="C242">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3814,19 +3787,18 @@
         <v>65</v>
       </c>
       <c r="C243">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>16</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="1">
         <v>70</v>
       </c>
       <c r="C244">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3834,36 +3806,33 @@
       <c r="A245" t="s">
         <v>16</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="1">
         <v>71</v>
       </c>
       <c r="C245">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>16</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="1">
         <v>73</v>
       </c>
       <c r="C246">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>16</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="1">
         <v>74</v>
       </c>
       <c r="C247">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3874,7 +3843,7 @@
         <v>106</v>
       </c>
       <c r="C248">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="C248:C311" ca="1" si="9">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3886,8 +3855,8 @@
         <v>107</v>
       </c>
       <c r="C249">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3898,8 +3867,8 @@
         <v>108</v>
       </c>
       <c r="C250">
-        <f t="shared" ref="C250:C263" ca="1" si="14">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3910,7 +3879,7 @@
         <v>110</v>
       </c>
       <c r="C251">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -3922,7 +3891,7 @@
         <v>111</v>
       </c>
       <c r="C252">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3934,8 +3903,8 @@
         <v>112</v>
       </c>
       <c r="C253">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3946,8 +3915,8 @@
         <v>1</v>
       </c>
       <c r="C254">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3958,7 +3927,7 @@
         <v>40</v>
       </c>
       <c r="C255">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -3970,7 +3939,7 @@
         <v>42</v>
       </c>
       <c r="C256">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3982,8 +3951,8 @@
         <v>46</v>
       </c>
       <c r="C257">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3994,7 +3963,7 @@
         <v>47</v>
       </c>
       <c r="C258">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4006,8 +3975,8 @@
         <v>48</v>
       </c>
       <c r="C259">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -4018,7 +3987,7 @@
         <v>64</v>
       </c>
       <c r="C260">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4030,7 +3999,7 @@
         <v>65</v>
       </c>
       <c r="C261">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4042,8 +4011,8 @@
         <v>70</v>
       </c>
       <c r="C262">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -4054,8 +4023,8 @@
         <v>71</v>
       </c>
       <c r="C263">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -4066,8 +4035,8 @@
         <v>73</v>
       </c>
       <c r="C264">
-        <f t="shared" ref="C264:C277" ca="1" si="15">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -4078,8 +4047,8 @@
         <v>74</v>
       </c>
       <c r="C265">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -4090,8 +4059,8 @@
         <v>106</v>
       </c>
       <c r="C266">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4102,7 +4071,7 @@
         <v>107</v>
       </c>
       <c r="C267">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4114,7 +4083,7 @@
         <v>108</v>
       </c>
       <c r="C268">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4126,7 +4095,7 @@
         <v>110</v>
       </c>
       <c r="C269">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4138,8 +4107,8 @@
         <v>111</v>
       </c>
       <c r="C270">
-        <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -4150,7 +4119,7 @@
         <v>112</v>
       </c>
       <c r="C271">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4162,7 +4131,7 @@
         <v>1</v>
       </c>
       <c r="C272">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4174,8 +4143,8 @@
         <v>40</v>
       </c>
       <c r="C273">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -4186,7 +4155,7 @@
         <v>42</v>
       </c>
       <c r="C274">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4198,7 +4167,7 @@
         <v>46</v>
       </c>
       <c r="C275">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4210,7 +4179,7 @@
         <v>47</v>
       </c>
       <c r="C276">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4222,8 +4191,8 @@
         <v>48</v>
       </c>
       <c r="C277">
-        <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -4234,8 +4203,8 @@
         <v>64</v>
       </c>
       <c r="C278">
-        <f t="shared" ref="C278:C291" ca="1" si="16">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -4246,8 +4215,8 @@
         <v>65</v>
       </c>
       <c r="C279">
-        <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -4258,8 +4227,8 @@
         <v>70</v>
       </c>
       <c r="C280">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -4270,8 +4239,8 @@
         <v>71</v>
       </c>
       <c r="C281">
-        <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -4282,8 +4251,8 @@
         <v>73</v>
       </c>
       <c r="C282">
-        <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -4294,8 +4263,8 @@
         <v>74</v>
       </c>
       <c r="C283">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -4306,7 +4275,7 @@
         <v>106</v>
       </c>
       <c r="C284">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4318,7 +4287,7 @@
         <v>107</v>
       </c>
       <c r="C285">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4330,8 +4299,8 @@
         <v>108</v>
       </c>
       <c r="C286">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -4342,7 +4311,7 @@
         <v>110</v>
       </c>
       <c r="C287">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4354,8 +4323,8 @@
         <v>111</v>
       </c>
       <c r="C288">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -4366,7 +4335,7 @@
         <v>112</v>
       </c>
       <c r="C289">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4378,8 +4347,8 @@
         <v>1</v>
       </c>
       <c r="C290">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -4390,7 +4359,7 @@
         <v>40</v>
       </c>
       <c r="C291">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4402,7 +4371,7 @@
         <v>42</v>
       </c>
       <c r="C292">
-        <f t="shared" ref="C292:C307" ca="1" si="17">RANDBETWEEN(0,1)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4414,8 +4383,8 @@
         <v>46</v>
       </c>
       <c r="C293">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -4426,7 +4395,7 @@
         <v>47</v>
       </c>
       <c r="C294">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4438,8 +4407,8 @@
         <v>48</v>
       </c>
       <c r="C295">
-        <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -4450,8 +4419,8 @@
         <v>64</v>
       </c>
       <c r="C296">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -4462,8 +4431,8 @@
         <v>65</v>
       </c>
       <c r="C297">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -4474,8 +4443,8 @@
         <v>70</v>
       </c>
       <c r="C298">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -4486,8 +4455,8 @@
         <v>71</v>
       </c>
       <c r="C299">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -4498,7 +4467,7 @@
         <v>73</v>
       </c>
       <c r="C300">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4510,7 +4479,7 @@
         <v>74</v>
       </c>
       <c r="C301">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4522,7 +4491,7 @@
         <v>106</v>
       </c>
       <c r="C302">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4534,7 +4503,7 @@
         <v>107</v>
       </c>
       <c r="C303">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4546,7 +4515,7 @@
         <v>108</v>
       </c>
       <c r="C304">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4558,7 +4527,7 @@
         <v>110</v>
       </c>
       <c r="C305">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4570,8 +4539,8 @@
         <v>111</v>
       </c>
       <c r="C306">
-        <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -4582,7 +4551,7 @@
         <v>112</v>
       </c>
       <c r="C307">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4590,12 +4559,11 @@
       <c r="A308" t="s">
         <v>20</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="1">
         <v>1</v>
       </c>
       <c r="C308">
-        <f t="shared" ref="C308:C325" ca="1" si="18">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -4606,7 +4574,7 @@
         <v>40</v>
       </c>
       <c r="C309">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4618,7 +4586,7 @@
         <v>42</v>
       </c>
       <c r="C310">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4630,7 +4598,7 @@
         <v>46</v>
       </c>
       <c r="C311">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4642,8 +4610,8 @@
         <v>47</v>
       </c>
       <c r="C312">
-        <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <f t="shared" ref="C312:C315" ca="1" si="10">RANDBETWEEN(0,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4654,7 +4622,7 @@
         <v>48</v>
       </c>
       <c r="C313">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4666,7 +4634,7 @@
         <v>64</v>
       </c>
       <c r="C314">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4678,19 +4646,18 @@
         <v>65</v>
       </c>
       <c r="C315">
-        <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>20</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="1">
         <v>70</v>
       </c>
       <c r="C316">
-        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4698,11 +4665,10 @@
       <c r="A317" t="s">
         <v>20</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="1">
         <v>71</v>
       </c>
       <c r="C317">
-        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -4710,24 +4676,22 @@
       <c r="A318" t="s">
         <v>20</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="1">
         <v>73</v>
       </c>
       <c r="C318">
-        <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>20</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="1">
         <v>74</v>
       </c>
       <c r="C319">
-        <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -4738,8 +4702,8 @@
         <v>106</v>
       </c>
       <c r="C320">
-        <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <f t="shared" ref="C320:C351" ca="1" si="11">RANDBETWEEN(0,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -4750,7 +4714,7 @@
         <v>107</v>
       </c>
       <c r="C321">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -4762,7 +4726,7 @@
         <v>108</v>
       </c>
       <c r="C322">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4774,8 +4738,8 @@
         <v>110</v>
       </c>
       <c r="C323">
-        <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -4786,7 +4750,7 @@
         <v>111</v>
       </c>
       <c r="C324">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -4798,7 +4762,7 @@
         <v>112</v>
       </c>
       <c r="C325">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -4810,8 +4774,8 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <f t="shared" ref="C326:C343" ca="1" si="19">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -4822,8 +4786,8 @@
         <v>40</v>
       </c>
       <c r="C327">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -4834,7 +4798,7 @@
         <v>42</v>
       </c>
       <c r="C328">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -4846,8 +4810,8 @@
         <v>46</v>
       </c>
       <c r="C329">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -4858,8 +4822,8 @@
         <v>47</v>
       </c>
       <c r="C330">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -4870,7 +4834,7 @@
         <v>48</v>
       </c>
       <c r="C331">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4882,8 +4846,8 @@
         <v>64</v>
       </c>
       <c r="C332">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4894,7 +4858,7 @@
         <v>65</v>
       </c>
       <c r="C333">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4906,7 +4870,7 @@
         <v>70</v>
       </c>
       <c r="C334">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4918,7 +4882,7 @@
         <v>71</v>
       </c>
       <c r="C335">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4930,8 +4894,8 @@
         <v>73</v>
       </c>
       <c r="C336">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4942,8 +4906,8 @@
         <v>74</v>
       </c>
       <c r="C337">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4954,7 +4918,7 @@
         <v>106</v>
       </c>
       <c r="C338">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -4966,7 +4930,7 @@
         <v>107</v>
       </c>
       <c r="C339">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4978,7 +4942,7 @@
         <v>108</v>
       </c>
       <c r="C340">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -4990,7 +4954,7 @@
         <v>110</v>
       </c>
       <c r="C341">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -5002,8 +4966,8 @@
         <v>111</v>
       </c>
       <c r="C342">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -5014,7 +4978,7 @@
         <v>112</v>
       </c>
       <c r="C343">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5022,11 +4986,10 @@
       <c r="A344" t="s">
         <v>22</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="1">
         <v>1</v>
       </c>
       <c r="C344">
-        <f t="shared" ref="C344:C361" ca="1" si="20">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5038,8 +5001,8 @@
         <v>40</v>
       </c>
       <c r="C345">
-        <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -5050,8 +5013,8 @@
         <v>42</v>
       </c>
       <c r="C346">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -5062,8 +5025,8 @@
         <v>46</v>
       </c>
       <c r="C347">
-        <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -5074,7 +5037,7 @@
         <v>47</v>
       </c>
       <c r="C348">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -5086,8 +5049,8 @@
         <v>48</v>
       </c>
       <c r="C349">
-        <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -5098,7 +5061,7 @@
         <v>64</v>
       </c>
       <c r="C350">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -5110,7 +5073,7 @@
         <v>65</v>
       </c>
       <c r="C351">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -5118,11 +5081,10 @@
       <c r="A352" t="s">
         <v>22</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="1">
         <v>70</v>
       </c>
       <c r="C352">
-        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -5130,36 +5092,33 @@
       <c r="A353" t="s">
         <v>22</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="1">
         <v>71</v>
       </c>
       <c r="C353">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>22</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="1">
         <v>73</v>
       </c>
       <c r="C354">
-        <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>22</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="1">
         <v>74</v>
       </c>
       <c r="C355">
-        <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -5170,8 +5129,8 @@
         <v>106</v>
       </c>
       <c r="C356">
-        <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <f t="shared" ref="C356:C361" ca="1" si="12">RANDBETWEEN(0,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -5182,7 +5141,7 @@
         <v>107</v>
       </c>
       <c r="C357">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5194,7 +5153,7 @@
         <v>108</v>
       </c>
       <c r="C358">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5206,8 +5165,8 @@
         <v>110</v>
       </c>
       <c r="C359">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -5218,7 +5177,7 @@
         <v>111</v>
       </c>
       <c r="C360">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5230,8 +5189,8 @@
         <v>112</v>
       </c>
       <c r="C361">
-        <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
